--- a/Questionairies.xlsx
+++ b/Questionairies.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Swapnil\Desktop\watchbox\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0CEA0C35-BDA7-4B3E-B564-F24C4D8B5D2A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C4394DBF-DC17-4601-87B7-C0E83743CC69}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="184" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="208" uniqueCount="90">
   <si>
     <t xml:space="preserve">Q. 1) Find all the unique 'Wind Speed' values in the data. </t>
   </si>
@@ -1698,7 +1698,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="10">
+  <borders count="8">
     <border>
       <left/>
       <right/>
@@ -1793,35 +1793,11 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1837,8 +1813,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -2512,7 +2486,7 @@
   <dimension ref="A1:E16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A16" sqref="A16"/>
+      <selection activeCell="A23" sqref="A23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2697,55 +2671,103 @@
       <c r="A11" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="B11" s="2"/>
-      <c r="C11" s="2"/>
-      <c r="D11" s="2"/>
-      <c r="E11" s="4"/>
+      <c r="B11" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E11" s="4" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A12" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="B12" s="2"/>
-      <c r="C12" s="2"/>
-      <c r="D12" s="2"/>
-      <c r="E12" s="4"/>
+      <c r="B12" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E12" s="4" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A13" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="B13" s="2"/>
-      <c r="C13" s="2"/>
-      <c r="D13" s="2"/>
-      <c r="E13" s="4"/>
+      <c r="B13" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E13" s="4" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A14" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B14" s="2"/>
-      <c r="C14" s="2"/>
-      <c r="D14" s="2"/>
-      <c r="E14" s="4"/>
+      <c r="B14" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E14" s="4" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A15" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="B15" s="2"/>
-      <c r="C15" s="2"/>
-      <c r="D15" s="2"/>
-      <c r="E15" s="4"/>
+      <c r="B15" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E15" s="4" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A16" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="B16" s="9"/>
-      <c r="C16" s="9"/>
-      <c r="D16" s="9"/>
-      <c r="E16" s="10"/>
+      <c r="B16" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E16" s="4" t="s">
+        <v>20</v>
+      </c>
     </row>
   </sheetData>
   <dataValidations count="1">
@@ -2764,8 +2786,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BED89923-F3D4-4330-A7A7-E6B162808C7F}">
   <dimension ref="A1:E67"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A44" workbookViewId="0">
-      <selection activeCell="B58" sqref="B58"/>
+    <sheetView tabSelected="1" topLeftCell="A23" workbookViewId="0">
+      <selection activeCell="A23" sqref="A23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2777,219 +2799,219 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A1" s="11" t="s">
+      <c r="A1" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="B1" s="11" t="s">
+      <c r="B1" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="C1" s="11" t="s">
+      <c r="C1" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="D1" s="11" t="s">
+      <c r="D1" s="9" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A2" s="25" t="s">
+      <c r="A2" s="23" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="25" t="s">
+      <c r="B2" s="23" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="25" t="s">
+      <c r="C2" s="23" t="s">
         <v>0</v>
       </c>
-      <c r="D2" s="25" t="s">
+      <c r="D2" s="23" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A3" s="17" t="s">
+      <c r="A3" s="15" t="s">
         <v>21</v>
       </c>
-      <c r="B3" s="16" t="s">
+      <c r="B3" s="14" t="s">
         <v>24</v>
       </c>
-      <c r="C3" s="18" t="s">
+      <c r="C3" s="16" t="s">
         <v>25</v>
       </c>
-      <c r="D3" s="19" t="s">
+      <c r="D3" s="17" t="s">
         <v>27</v>
       </c>
       <c r="E3" s="1"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A4" s="17" t="s">
+      <c r="A4" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="B4" s="20"/>
-      <c r="C4" s="20"/>
-      <c r="D4" s="20"/>
+      <c r="B4" s="18"/>
+      <c r="C4" s="18"/>
+      <c r="D4" s="18"/>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A5" s="17" t="s">
+      <c r="A5" s="15" t="s">
         <v>23</v>
       </c>
-      <c r="B5" s="16"/>
-      <c r="C5" s="16"/>
-      <c r="D5" s="16"/>
+      <c r="B5" s="14"/>
+      <c r="C5" s="14"/>
+      <c r="D5" s="14"/>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A6" s="17"/>
-      <c r="B6" s="16"/>
-      <c r="C6" s="16"/>
-      <c r="D6" s="16"/>
-    </row>
-    <row r="7" spans="1:5" s="26" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="25" t="s">
+      <c r="A6" s="15"/>
+      <c r="B6" s="14"/>
+      <c r="C6" s="14"/>
+      <c r="D6" s="14"/>
+    </row>
+    <row r="7" spans="1:5" s="24" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="23" t="s">
         <v>1</v>
       </c>
-      <c r="B7" s="25" t="s">
+      <c r="B7" s="23" t="s">
         <v>1</v>
       </c>
-      <c r="C7" s="25" t="s">
+      <c r="C7" s="23" t="s">
         <v>1</v>
       </c>
-      <c r="D7" s="25" t="s">
+      <c r="D7" s="23" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A8" s="17" t="s">
+      <c r="A8" s="15" t="s">
         <v>28</v>
       </c>
-      <c r="B8" s="16" t="s">
+      <c r="B8" s="14" t="s">
         <v>31</v>
       </c>
-      <c r="C8" s="21" t="s">
+      <c r="C8" s="19" t="s">
         <v>32</v>
       </c>
-      <c r="D8" s="16" t="s">
+      <c r="D8" s="14" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A9" s="17" t="s">
+      <c r="A9" s="15" t="s">
         <v>34</v>
       </c>
-      <c r="B9" s="16"/>
-      <c r="C9" s="21" t="s">
+      <c r="B9" s="14"/>
+      <c r="C9" s="19" t="s">
         <v>33</v>
       </c>
-      <c r="D9" s="16" t="s">
+      <c r="D9" s="14" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A10" s="17"/>
-      <c r="B10" s="16"/>
-      <c r="C10" s="16"/>
-      <c r="D10" s="16"/>
-    </row>
-    <row r="11" spans="1:5" s="26" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="25" t="s">
+      <c r="A10" s="15"/>
+      <c r="B10" s="14"/>
+      <c r="C10" s="14"/>
+      <c r="D10" s="14"/>
+    </row>
+    <row r="11" spans="1:5" s="24" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="23" t="s">
         <v>2</v>
       </c>
-      <c r="B11" s="25" t="s">
+      <c r="B11" s="23" t="s">
         <v>2</v>
       </c>
-      <c r="C11" s="25" t="s">
+      <c r="C11" s="23" t="s">
         <v>2</v>
       </c>
-      <c r="D11" s="25" t="s">
+      <c r="D11" s="23" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A12" s="17" t="s">
+      <c r="A12" s="15" t="s">
         <v>35</v>
       </c>
-      <c r="B12" s="15" t="s">
+      <c r="B12" s="13" t="s">
         <v>36</v>
       </c>
-      <c r="C12" s="21" t="s">
+      <c r="C12" s="19" t="s">
         <v>42</v>
       </c>
-      <c r="D12" s="16"/>
+      <c r="D12" s="14"/>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A13" s="16"/>
-      <c r="B13" s="16"/>
-      <c r="C13" s="21" t="s">
+      <c r="A13" s="14"/>
+      <c r="B13" s="14"/>
+      <c r="C13" s="19" t="s">
         <v>43</v>
       </c>
-      <c r="D13" s="16"/>
+      <c r="D13" s="14"/>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A14" s="16"/>
-      <c r="B14" s="16"/>
-      <c r="C14" s="16"/>
-      <c r="D14" s="16"/>
-    </row>
-    <row r="15" spans="1:5" s="26" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="25" t="s">
+      <c r="A14" s="14"/>
+      <c r="B14" s="14"/>
+      <c r="C14" s="14"/>
+      <c r="D14" s="14"/>
+    </row>
+    <row r="15" spans="1:5" s="24" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="23" t="s">
         <v>3</v>
       </c>
-      <c r="B15" s="25" t="s">
+      <c r="B15" s="23" t="s">
         <v>3</v>
       </c>
-      <c r="C15" s="25" t="s">
+      <c r="C15" s="23" t="s">
         <v>3</v>
       </c>
-      <c r="D15" s="25" t="s">
+      <c r="D15" s="23" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="16" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A16" s="16" t="s">
+      <c r="A16" s="14" t="s">
         <v>37</v>
       </c>
-      <c r="B16" s="16"/>
-      <c r="C16" s="21" t="s">
+      <c r="B16" s="14"/>
+      <c r="C16" s="19" t="s">
         <v>44</v>
       </c>
-      <c r="D16" s="19" t="s">
+      <c r="D16" s="17" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A17" s="16" t="s">
+      <c r="A17" s="14" t="s">
         <v>38</v>
       </c>
-      <c r="B17" s="16"/>
-      <c r="C17" s="21" t="s">
+      <c r="B17" s="14"/>
+      <c r="C17" s="19" t="s">
         <v>45</v>
       </c>
-      <c r="D17" s="16"/>
+      <c r="D17" s="14"/>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A18" s="15"/>
-      <c r="B18" s="15"/>
-      <c r="C18" s="15"/>
-      <c r="D18" s="15"/>
+      <c r="A18" s="13"/>
+      <c r="B18" s="13"/>
+      <c r="C18" s="13"/>
+      <c r="D18" s="13"/>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A19" s="25" t="s">
+      <c r="A19" s="23" t="s">
         <v>4</v>
       </c>
-      <c r="B19" s="25" t="s">
+      <c r="B19" s="23" t="s">
         <v>4</v>
       </c>
-      <c r="C19" s="25" t="s">
+      <c r="C19" s="23" t="s">
         <v>4</v>
       </c>
-      <c r="D19" s="25" t="s">
+      <c r="D19" s="23" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="20" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A20" s="15" t="s">
+      <c r="A20" s="13" t="s">
         <v>40</v>
       </c>
-      <c r="B20" s="15"/>
-      <c r="C20" s="15"/>
-      <c r="D20" s="22" t="s">
+      <c r="B20" s="13"/>
+      <c r="C20" s="13"/>
+      <c r="D20" s="20" t="s">
         <v>41</v>
       </c>
     </row>
@@ -2999,31 +3021,31 @@
       <c r="C21" s="2"/>
       <c r="D21" s="2"/>
     </row>
-    <row r="22" spans="1:4" s="26" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="25" t="s">
+    <row r="22" spans="1:4" s="24" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="23" t="s">
         <v>5</v>
       </c>
-      <c r="B22" s="25" t="s">
+      <c r="B22" s="23" t="s">
         <v>5</v>
       </c>
-      <c r="C22" s="25" t="s">
+      <c r="C22" s="23" t="s">
         <v>5</v>
       </c>
-      <c r="D22" s="25" t="s">
+      <c r="D22" s="23" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="23" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A23" s="15" t="s">
+      <c r="A23" s="13" t="s">
         <v>46</v>
       </c>
-      <c r="B23" s="15" t="s">
+      <c r="B23" s="13" t="s">
         <v>48</v>
       </c>
-      <c r="C23" s="15" t="s">
+      <c r="C23" s="13" t="s">
         <v>49</v>
       </c>
-      <c r="D23" s="22" t="s">
+      <c r="D23" s="20" t="s">
         <v>47</v>
       </c>
     </row>
@@ -3033,31 +3055,31 @@
       <c r="C24" s="2"/>
       <c r="D24" s="2"/>
     </row>
-    <row r="25" spans="1:4" s="26" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="27" t="s">
+    <row r="25" spans="1:4" s="24" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="25" t="s">
         <v>6</v>
       </c>
-      <c r="B25" s="27" t="s">
+      <c r="B25" s="25" t="s">
         <v>6</v>
       </c>
-      <c r="C25" s="27" t="s">
+      <c r="C25" s="25" t="s">
         <v>6</v>
       </c>
-      <c r="D25" s="27" t="s">
+      <c r="D25" s="25" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="26" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A26" s="14" t="s">
+      <c r="A26" s="12" t="s">
         <v>50</v>
       </c>
-      <c r="B26" s="14" t="s">
+      <c r="B26" s="12" t="s">
         <v>51</v>
       </c>
-      <c r="C26" s="15" t="s">
+      <c r="C26" s="13" t="s">
         <v>52</v>
       </c>
-      <c r="D26" s="23" t="s">
+      <c r="D26" s="21" t="s">
         <v>53</v>
       </c>
     </row>
@@ -3067,31 +3089,31 @@
       <c r="C27" s="2"/>
       <c r="D27" s="2"/>
     </row>
-    <row r="28" spans="1:4" s="26" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="28" t="s">
+    <row r="28" spans="1:4" s="24" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="26" t="s">
         <v>7</v>
       </c>
-      <c r="B28" s="28" t="s">
+      <c r="B28" s="26" t="s">
         <v>7</v>
       </c>
-      <c r="C28" s="28" t="s">
+      <c r="C28" s="26" t="s">
         <v>7</v>
       </c>
-      <c r="D28" s="28" t="s">
+      <c r="D28" s="26" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="29" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A29" s="14" t="s">
+      <c r="A29" s="12" t="s">
         <v>54</v>
       </c>
-      <c r="B29" s="14" t="s">
+      <c r="B29" s="12" t="s">
         <v>55</v>
       </c>
-      <c r="C29" s="24" t="s">
+      <c r="C29" s="22" t="s">
         <v>56</v>
       </c>
-      <c r="D29" s="23" t="s">
+      <c r="D29" s="21" t="s">
         <v>53</v>
       </c>
     </row>
@@ -3101,31 +3123,31 @@
       <c r="C30" s="2"/>
       <c r="D30" s="2"/>
     </row>
-    <row r="31" spans="1:4" s="26" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="28" t="s">
+    <row r="31" spans="1:4" s="24" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A31" s="26" t="s">
         <v>57</v>
       </c>
-      <c r="B31" s="29" t="s">
+      <c r="B31" s="27" t="s">
         <v>57</v>
       </c>
-      <c r="C31" s="29" t="s">
+      <c r="C31" s="27" t="s">
         <v>57</v>
       </c>
-      <c r="D31" s="29" t="s">
+      <c r="D31" s="27" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="32" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A32" s="14" t="s">
+      <c r="A32" s="12" t="s">
         <v>59</v>
       </c>
-      <c r="B32" s="14" t="s">
+      <c r="B32" s="12" t="s">
         <v>58</v>
       </c>
-      <c r="C32" s="12" t="s">
+      <c r="C32" s="10" t="s">
         <v>61</v>
       </c>
-      <c r="D32" s="13" t="s">
+      <c r="D32" s="11" t="s">
         <v>62</v>
       </c>
     </row>
@@ -3137,38 +3159,38 @@
       </c>
       <c r="D33" s="2"/>
     </row>
-    <row r="34" spans="1:4" s="26" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="30" t="s">
+    <row r="34" spans="1:4" s="24" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A34" s="28" t="s">
         <v>63</v>
       </c>
-      <c r="B34" s="30" t="s">
+      <c r="B34" s="28" t="s">
         <v>63</v>
       </c>
-      <c r="C34" s="30" t="s">
+      <c r="C34" s="28" t="s">
         <v>63</v>
       </c>
-      <c r="D34" s="30" t="s">
+      <c r="D34" s="28" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="35" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A35" s="14" t="s">
+      <c r="A35" s="12" t="s">
         <v>64</v>
       </c>
-      <c r="B35" s="14" t="s">
+      <c r="B35" s="12" t="s">
         <v>65</v>
       </c>
-      <c r="C35" s="12" t="s">
+      <c r="C35" s="10" t="s">
         <v>66</v>
       </c>
-      <c r="D35" s="13" t="s">
+      <c r="D35" s="11" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A36" s="2"/>
       <c r="B36" s="2"/>
-      <c r="C36" s="12" t="s">
+      <c r="C36" s="10" t="s">
         <v>67</v>
       </c>
       <c r="D36" s="2"/>
@@ -3176,7 +3198,7 @@
     <row r="37" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A37" s="2"/>
       <c r="B37" s="2"/>
-      <c r="C37" s="13" t="s">
+      <c r="C37" s="11" t="s">
         <v>84</v>
       </c>
       <c r="D37" s="2"/>
@@ -3187,17 +3209,17 @@
       <c r="C38" s="2"/>
       <c r="D38" s="2"/>
     </row>
-    <row r="39" spans="1:4" s="26" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="29" t="s">
+    <row r="39" spans="1:4" s="24" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A39" s="27" t="s">
         <v>69</v>
       </c>
-      <c r="B39" s="29" t="s">
+      <c r="B39" s="27" t="s">
         <v>69</v>
       </c>
-      <c r="C39" s="29" t="s">
+      <c r="C39" s="27" t="s">
         <v>69</v>
       </c>
-      <c r="D39" s="29" t="s">
+      <c r="D39" s="27" t="s">
         <v>69</v>
       </c>
     </row>
@@ -3207,7 +3229,7 @@
       </c>
       <c r="B40" s="2"/>
       <c r="C40" s="2"/>
-      <c r="D40" s="13" t="s">
+      <c r="D40" s="11" t="s">
         <v>71</v>
       </c>
     </row>
@@ -3218,16 +3240,16 @@
       <c r="D41" s="2"/>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A42" s="30" t="s">
+      <c r="A42" s="28" t="s">
         <v>72</v>
       </c>
-      <c r="B42" s="30" t="s">
+      <c r="B42" s="28" t="s">
         <v>72</v>
       </c>
-      <c r="C42" s="30" t="s">
+      <c r="C42" s="28" t="s">
         <v>72</v>
       </c>
-      <c r="D42" s="30" t="s">
+      <c r="D42" s="28" t="s">
         <v>72</v>
       </c>
     </row>
@@ -3237,7 +3259,7 @@
       </c>
       <c r="B43" s="2"/>
       <c r="C43" s="2"/>
-      <c r="D43" s="13" t="s">
+      <c r="D43" s="11" t="s">
         <v>75</v>
       </c>
     </row>
@@ -3256,16 +3278,16 @@
       <c r="D45" s="2"/>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A46" s="30" t="s">
+      <c r="A46" s="28" t="s">
         <v>77</v>
       </c>
-      <c r="B46" s="30" t="s">
+      <c r="B46" s="28" t="s">
         <v>77</v>
       </c>
-      <c r="C46" s="30" t="s">
+      <c r="C46" s="28" t="s">
         <v>77</v>
       </c>
-      <c r="D46" s="30" t="s">
+      <c r="D46" s="28" t="s">
         <v>77</v>
       </c>
     </row>
@@ -3276,17 +3298,17 @@
       <c r="B47" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="C47" s="12" t="s">
+      <c r="C47" s="10" t="s">
         <v>79</v>
       </c>
-      <c r="D47" s="13" t="s">
+      <c r="D47" s="11" t="s">
         <v>81</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A48" s="2"/>
       <c r="B48" s="2"/>
-      <c r="C48" s="12" t="s">
+      <c r="C48" s="10" t="s">
         <v>80</v>
       </c>
       <c r="D48" s="2"/>
@@ -3298,16 +3320,16 @@
       <c r="D49" s="2"/>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A50" s="28" t="s">
+      <c r="A50" s="26" t="s">
         <v>13</v>
       </c>
-      <c r="B50" s="28" t="s">
+      <c r="B50" s="26" t="s">
         <v>13</v>
       </c>
-      <c r="C50" s="28" t="s">
+      <c r="C50" s="26" t="s">
         <v>13</v>
       </c>
-      <c r="D50" s="28" t="s">
+      <c r="D50" s="26" t="s">
         <v>13</v>
       </c>
     </row>
@@ -3318,10 +3340,10 @@
       <c r="B51" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="C51" s="13" t="s">
+      <c r="C51" s="11" t="s">
         <v>85</v>
       </c>
-      <c r="D51" s="13" t="s">
+      <c r="D51" s="11" t="s">
         <v>86</v>
       </c>
     </row>
@@ -3332,28 +3354,28 @@
       <c r="D52" s="2"/>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A53" s="31" t="s">
+      <c r="A53" s="29" t="s">
         <v>14</v>
       </c>
-      <c r="B53" s="31" t="s">
+      <c r="B53" s="29" t="s">
         <v>14</v>
       </c>
-      <c r="C53" s="31" t="s">
+      <c r="C53" s="29" t="s">
         <v>14</v>
       </c>
-      <c r="D53" s="31" t="s">
+      <c r="D53" s="29" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="54" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A54" s="13" t="s">
+      <c r="A54" s="11" t="s">
         <v>87</v>
       </c>
       <c r="B54" s="2"/>
-      <c r="C54" s="13" t="s">
+      <c r="C54" s="11" t="s">
         <v>89</v>
       </c>
-      <c r="D54" s="13" t="s">
+      <c r="D54" s="11" t="s">
         <v>88</v>
       </c>
     </row>
